--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K284"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,313 +1615,283 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>finale</t>
+          <t>nul_return</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>finale</t>
+          <t>nul_return</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>finale_check_lily_dead</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>narr_nul_r1</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>finale_lily_hostile</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>balgas_f1</t>
+          <t>narr_nul_r2</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>lily_f1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>zek_f1</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>sys_complete</t>
+          <t>nul_r1</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
+          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
+          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>fadeOut</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.0,black</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>act5_balgas_dead</t>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>zek_nul_r1</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>astaroth_6d</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>astaroth_7d</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="F99" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>nul_r2</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>nul_r3</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>……私の名前は、ヌル。……それでいい。</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>……私の名前は、ヌル。……それでいい。</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>nul_r4</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>……これからは、あなたと一緒に……生きていきたい。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>……これからは、あなたと一緒に……生きていきたい。</t>
         </is>
       </c>
     </row>
@@ -1933,29 +1903,19 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
@@ -1967,730 +1927,775 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>zek_nul_r2</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>lily_d5</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>act6_balgas_dead</t>
+          <t>finale_check_lily_dead</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>act6_balgas_dead</t>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>finale_lily_hostile</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>balgas_f1</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="F111" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>lily_f1</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>zek_f1</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>sys_complete</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>fadeOut</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>lily_d6</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>act5_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="F119" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>astaroth_6d</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>astaroth_7d</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="F122" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>zek_d7</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ending_choice_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ending_choice_balgas_dead</t>
-        </is>
-      </c>
     </row>
     <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ending_a_balgas_dead</t>
-        </is>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ending_a_rescue_dead</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ending_b_balgas_dead</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>ending_b_inherit_dead</t>
+          <t>zek_12</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ending_a_balgas_dead</t>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="D128" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="D129" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="F130" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>lily_d5</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>lily_ea2</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>act6_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>lily_ead</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>act6_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
+    <row r="137">
+      <c r="D137" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>zek_ea1</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="D138" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>lily_d6</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>ending_b_balgas_dead</t>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="D142" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="D143" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>lily_eb1</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="F145" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>lily_eb2</t>
+          <t>zek_d7</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>lily_ebd</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ending_choice_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ending_choice_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ending_a_balgas_dead</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>ending_a_rescue_dead</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ending_b_balgas_dead</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>ending_b_inherit_dead</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ending_a_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,1</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>finale_balgas_dead</t>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2702,276 +2707,271 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>lily_f1d</t>
+          <t>lily_ea2</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="F155" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>zek_f1</t>
+          <t>lily_ead</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>sys_complete</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="D158" t="inlineStr">
         <is>
-          <t>fadeOut</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1.0,black</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>act5_check_lily_dead</t>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>zek_ea2</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>act5_worst</t>
-        </is>
-      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>act5_balgas_dead</t>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>finale_check_lily_dead</t>
+          <t>ending_b_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>finale_worst</t>
-        </is>
-      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>finale_balgas_dead</t>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>act5_lily_hostile</t>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>lily_eb2</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="inlineStr">
         <is>
-          <t>sukutsu_astaroth</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>astaroth_6</t>
+          <t>lily_ebd</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>astaroth_7_lh</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -2983,341 +2983,336 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="F175" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>finale_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>lily_f1d</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="F178" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>zek_f1</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ？</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="179">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>balgas_lh5</t>
+          <t>sys_complete</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>act6_lily_hostile</t>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>act6_lily_hostile</t>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>act5_check_lily_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>act5_worst</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>act5_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>finale_check_lily_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>finale_worst</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>finale_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>act5_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="F184" t="inlineStr">
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="F191" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>……おい、見ろ。あれは……</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>……おい、見ろ。あれは……</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>astaroth_7_lh</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>zek_lh7</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3336,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -3360,261 +3355,276 @@
     <row r="198">
       <c r="F198" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>zek_12</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ending_choice_lily_hostile</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>ending_choice_lily_hostile</t>
-        </is>
-      </c>
     </row>
     <row r="201">
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ending_a_lily_hostile</t>
-        </is>
-      </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>ending_a_rescue_lh</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ending_b_lily_hostile</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>ending_b_inherit_lh</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>ending_a_lily_hostile</t>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>balgas_lh5</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>act6_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>act6_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>balgas_ea_lh</t>
+          <t>narr_16</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="D209" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="D210" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>zek_ea1</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>epilogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>ending_b_lily_hostile</t>
         </is>
       </c>
     </row>
@@ -3626,19 +3636,29 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>zek_lh7</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
@@ -3650,552 +3670,517 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="F219" t="inlineStr">
+    <row r="221">
+      <c r="F221" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>balgas_eb_lh1</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="F220" t="inlineStr">
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ending_choice_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ending_choice_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ending_a_lily_hostile</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>ending_a_rescue_lh</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ending_b_lily_hostile</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>ending_b_inherit_lh</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ending_a_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>balgas_eb_lh2</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
+    </row>
+    <row r="229">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>balgas_ea_lh</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>epilogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>finale_lily_hostile</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>balgas_f_lh</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>zek_f1</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>sys_complete</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="D232" t="inlineStr">
         <is>
-          <t>fadeOut</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>1.0,black</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="D233" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>act5_worst</t>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>zek_ea2</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>astaroth_6</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>astaroth_7_w</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ending_b_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="D240" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="D241" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>balgas_eb_lh1</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>balgas_eb_lh2</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="F244" t="inlineStr">
+    </row>
+    <row r="246">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="F247" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>zek_w5</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>act6_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>act6_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="F248" t="inlineStr">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>finale_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>balgas_f_lh</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>zek_f1</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ？</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>zek_w6</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
@@ -4207,194 +4192,179 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>sys_complete</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>zek_w7</t>
-        </is>
-      </c>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>zek_w8</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>ending_choice_worst</t>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>act5_worst</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>ending_choice_worst</t>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>ending_a_worst</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>ending_a_rescue_w</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>イルヴァへ行こう</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>イルヴァへ行こう</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>ending_b_worst</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>ending_b_inherit_w</t>
+          <t>astaroth_6</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>新しいアリーナを作り直したい</t>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>ending_a_worst</t>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>astaroth_7_w</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="D263" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="D264" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>zek_ea_w1</t>
-        </is>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
@@ -4406,171 +4376,211 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>zek_ea_w2</t>
+          <t>zek_12</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,0</t>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>zek_w5</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>epilogue</t>
+          <t>act6_worst</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ending_b_worst</t>
+          <t>act6_worst</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="D270" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="D271" t="inlineStr">
+    <row r="274">
+      <c r="D274" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
-    <row r="272">
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
+    <row r="275">
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="273">
-      <c r="F273" t="inlineStr">
+    <row r="276">
+      <c r="F276" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>zek_eb_w1</t>
-        </is>
-      </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="F274" t="inlineStr">
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>zek_w6</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="F278" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>zek_eb_w2</t>
-        </is>
-      </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>zek_eb_w3</t>
-        </is>
-      </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
-        </is>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>epilogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>finale_worst</t>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>zek_w7</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
@@ -4582,95 +4592,426 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
+          <t>zek_w8</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ending_choice_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ending_choice_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ending_a_worst</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>ending_a_rescue_w</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>イルヴァへ行こう</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ending_b_worst</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>ending_b_inherit_w</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ending_a_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>zek_ea_w1</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>zek_ea_w2</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ending_b_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>zek_eb_w1</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>zek_eb_w2</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>zek_eb_w3</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>finale_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
           <t>zek_fw1</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="I302" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="F280" t="inlineStr">
+    <row r="303">
+      <c r="F303" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>zek_fw2</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr">
+      <c r="I303" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr">
+      <c r="J303" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="D281" t="inlineStr">
+    <row r="304">
+      <c r="D304" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
+      <c r="E304" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="F304" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="F282" t="inlineStr">
+    <row r="305">
+      <c r="F305" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr">
+      <c r="I305" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
-    <row r="283">
-      <c r="D283" t="inlineStr">
+    <row r="306">
+      <c r="D306" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
-    <row r="284">
-      <c r="D284" t="inlineStr">
+    <row r="307">
+      <c r="D307" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
@@ -774,14 +774,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
@@ -793,462 +803,462 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>narr_18</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ending_choice</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>ending_choice</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>ending_a_rescue</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>新しいアリーナを作り直したい</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>新しいアリーナを作り直したい</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="D48" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>lily_ea2</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_ea2</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>balgas_ea1</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>balgas_ea1</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="D55" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="D56" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
@@ -1260,101 +1270,101 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>zek_ea1</t>
+          <t>zek_ea2</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,0</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
@@ -1366,75 +1376,75 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_eb1</t>
+          <t>lily_eb2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>lily_eb2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>balgas_eb1</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
@@ -1446,183 +1456,178 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>balgas_eb1</t>
+          <t>balgas_eb2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>balgas_eb2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/ProgressiveDance");             var data = SoundManager.current.GetData("BGM/ProgressiveDance");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/ProgressiveDance");             }</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/ProgressiveDance");             var data = SoundManager.current.GetData("BGM/ProgressiveDance");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/ProgressiveDance");             }</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>500</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>nul_return</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>nul_return</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>nul_return</t>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>narr_nul_r1</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>nul_return</t>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1634,46 +1639,41 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>narr_nul_r1</t>
+          <t>narr_nul_r2</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
+          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
+          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>narr_nul_r2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
         </is>
       </c>
     </row>
@@ -1685,19 +1685,29 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>nul_r1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
         </is>
       </c>
     </row>
@@ -1709,29 +1719,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>nul_r1</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -1743,19 +1743,29 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>zek_nul_r1</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
         </is>
       </c>
     </row>
@@ -1767,29 +1777,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>zek_nul_r1</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
         </is>
       </c>
     </row>
@@ -1801,31 +1801,51 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>nul_r2</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>nul_r3</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>……私の名前は、ヌル。……それでいい。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……私の名前は、ヌル。……それでいい。</t>
         </is>
       </c>
     </row>
@@ -1837,61 +1857,41 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>nul_r2</t>
+          <t>nul_r4</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
+          <t>……これからは、あなたと一緒に……生きていきたい。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
+          <t>……これからは、あなたと一緒に……生きていきたい。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>nul_r3</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>……私の名前は、ヌル。……それでいい。</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>……私の名前は、ヌル。……それでいい。</t>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>nul_r4</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>……これからは、あなたと一緒に……生きていきたい。</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>……これからは、あなたと一緒に……生きていきたい。</t>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -1903,228 +1903,223 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>zek_nul_r2</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>zek_nul_r2</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>finale</t>
+          <t>finale_check_lily_dead</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>finale</t>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>finale_lily_hostile</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>finale_check_lily_dead</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>balgas_f1</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>finale_lily_hostile</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>lily_f1</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="F110" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>balgas_f1</t>
+          <t>zek_f1</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>lily_f1</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>zek_f1</t>
+          <t>sys_complete</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>sys_complete</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>fadeOut</t>
+          <t>fadeIn</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.0,black</t>
+          <t>0.5,black</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2145,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
@@ -2373,14 +2368,24 @@
       </c>
     </row>
     <row r="133">
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
@@ -2392,310 +2397,310 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>lily_d6</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="F139" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>lily_d6</t>
+          <t>narr_18</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>……見て。あれは……帰り道。</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>……見て。あれは……帰り道。</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="F140" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="D142" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="D143" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="F144" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="144">
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>zek_d7</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>zek_d7</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ending_choice_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="inlineStr">
+      <c r="A146" t="inlineStr">
         <is>
           <t>ending_choice_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>ending_choice_balgas_dead</t>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ending_a_balgas_dead</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>ending_a_rescue_dead</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
+          <t>ending_b_balgas_dead</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>ending_b_inherit_dead</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>新しいアリーナを作り直したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>ending_a_balgas_dead</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>ending_a_rescue_dead</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ending_b_balgas_dead</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>ending_b_inherit_dead</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>新しいアリーナを作り直したい</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>新しいアリーナを作り直したい</t>
-        </is>
-      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>ending_a_balgas_dead</t>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="D152" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="F153" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>lily_ea2</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
     </row>
@@ -2707,75 +2712,75 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>lily_ea2</t>
+          <t>lily_ead</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
+          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>lily_ead</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="D157" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="F158" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="158">
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
@@ -2787,101 +2792,101 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>zek_ea1</t>
+          <t>zek_ea2</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,0</t>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ending_b_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>ending_b_balgas_dead</t>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="D164" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="D165" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="F166" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2898,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>lily_eb1</t>
+          <t>lily_eb2</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
@@ -2915,360 +2920,335 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>lily_eb2</t>
+          <t>lily_ebd</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>lily_ebd</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="D170" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="D171" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="F172" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="172">
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>finale_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>finale_balgas_dead</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>lily_f1d</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>lily_f1d</t>
+          <t>zek_f1</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
+          <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="178">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>zek_f1</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ？</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>sys_complete</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>【巣窟アリーナ】メインストーリークリア！</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>sys_complete</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>【巣窟アリーナ】メインストーリークリア！</t>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="inlineStr">
         <is>
-          <t>fadeOut</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
+          <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="D182" t="inlineStr">
         <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.5,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>act5_check_lily_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>act5_worst</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
+          <t>act5_worst</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
           <t>act5_balgas_dead</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>finale_check_lily_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>finale_worst</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
+          <t>finale_worst</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
           <t>finale_balgas_dead</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>act5_lily_hostile</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="D190" t="inlineStr">
+    <row r="191">
+      <c r="D191" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="inlineStr">
         <is>
-          <t>sukutsu_astaroth</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>astaroth_6</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
@@ -3280,155 +3260,155 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>astaroth_7_lh</t>
+          <t>astaroth_6</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="inlineStr">
         <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>astaroth_7_lh</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="D196" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="D197" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="F198" t="inlineStr">
+    <row r="199">
+      <c r="F199" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="D200" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="D201" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
     </row>
@@ -3440,43 +3420,53 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
           <t>balgas_lh5</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="B204" t="inlineStr">
+    <row r="205">
+      <c r="B205" t="inlineStr">
         <is>
           <t>act6_lily_hostile</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>act6_lily_hostile</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
         </is>
       </c>
     </row>
@@ -4209,150 +4199,145 @@
     <row r="255">
       <c r="D255" t="inlineStr">
         <is>
-          <t>fadeOut</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>1.0,black</t>
+          <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="D256" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>act5_worst</t>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="D258" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>act5_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="D260" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>astaroth_6</t>
-        </is>
-      </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
-        </is>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="inlineStr">
         <is>
-          <t>sukutsu_astaroth</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>astaroth_7_w</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="inlineStr">
         <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>astaroth_7_w</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="F264" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I262" t="inlineStr">
+      <c r="I264" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr">
+      <c r="J264" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -4364,99 +4349,89 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="266">
-      <c r="F266" t="inlineStr">
+    <row r="268">
+      <c r="F268" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I266" t="inlineStr">
+      <c r="I268" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr">
+      <c r="J268" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="F267" t="inlineStr">
+    <row r="269">
+      <c r="F269" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>zek_w5</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
+      <c r="I269" t="inlineStr">
         <is>
           <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr">
+      <c r="J269" t="inlineStr">
         <is>
           <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="B268" t="inlineStr">
+    <row r="270">
+      <c r="B270" t="inlineStr">
         <is>
           <t>act6_worst</t>
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t>act6_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
@@ -4468,119 +4443,119 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr">
+      <c r="I273" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr">
+      <c r="J273" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="D274" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="D275" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>zek_w6</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
-        </is>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>zek_w6</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
+          <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>zek_w7</t>
+          <t>narr_18</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
@@ -4592,150 +4567,150 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
+          <t>zek_w7</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
           <t>zek_w8</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr">
+      <c r="J280" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="B280" t="inlineStr">
+    <row r="281">
+      <c r="B281" t="inlineStr">
         <is>
           <t>ending_choice_worst</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+    <row r="282">
+      <c r="A282" t="inlineStr">
         <is>
           <t>ending_choice_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>ending_a_worst</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>ending_a_rescue_w</t>
-        </is>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
+          <t>ending_a_worst</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>ending_a_rescue_w</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>イルヴァへ行こう</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
           <t>ending_b_worst</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>ending_b_inherit_w</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr">
+      <c r="I284" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
-      <c r="J283" t="inlineStr">
+      <c r="J284" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+    <row r="285">
+      <c r="A285" t="inlineStr">
         <is>
           <t>ending_a_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="D286" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="D287" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>zek_ea_w1</t>
-        </is>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
@@ -4747,101 +4722,101 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
+          <t>zek_ea_w1</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
           <t>zek_ea_w2</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr">
+      <c r="I290" t="inlineStr">
         <is>
           <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr">
+      <c r="J290" t="inlineStr">
         <is>
           <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
-    <row r="290">
-      <c r="D290" t="inlineStr">
+    <row r="291">
+      <c r="D291" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
-    <row r="291">
-      <c r="B291" t="inlineStr">
+    <row r="292">
+      <c r="B292" t="inlineStr">
         <is>
           <t>epilogue</t>
         </is>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t>ending_b_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="D294" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="D295" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>zek_eb_w1</t>
-        </is>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
@@ -4853,17 +4828,17 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>zek_eb_w2</t>
+          <t>zek_eb_w1</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
@@ -4875,65 +4850,65 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
+          <t>zek_eb_w2</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
           <t>zek_eb_w3</t>
         </is>
       </c>
-      <c r="I298" t="inlineStr">
+      <c r="I299" t="inlineStr">
         <is>
           <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr">
+      <c r="J299" t="inlineStr">
         <is>
           <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
         </is>
       </c>
     </row>
-    <row r="299">
-      <c r="D299" t="inlineStr">
+    <row r="300">
+      <c r="D300" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
-    <row r="300">
-      <c r="B300" t="inlineStr">
+    <row r="301">
+      <c r="B301" t="inlineStr">
         <is>
           <t>epilogue</t>
         </is>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
+    <row r="302">
+      <c r="A302" t="inlineStr">
         <is>
           <t>finale_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>zek_fw1</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
         </is>
       </c>
     </row>
@@ -4945,73 +4920,114 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
+          <t>zek_fw1</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
           <t>zek_fw2</t>
         </is>
       </c>
-      <c r="I303" t="inlineStr">
+      <c r="I304" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
     </row>
-    <row r="304">
-      <c r="D304" t="inlineStr">
+    <row r="305">
+      <c r="D305" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="F305" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="305">
-      <c r="F305" t="inlineStr">
+    <row r="306">
+      <c r="F306" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
+      <c r="I306" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr">
+      <c r="J306" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>fadeOut</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="D307" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>unfocus</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>0.5,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="D310" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_epilogue.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K310"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -505,17 +510,17 @@
           <t>act5_check_lily_dead</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -527,233 +532,233 @@
           <t>act5_lily_hostile</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>astaroth_6</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>astaroth_7</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>「……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>「……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
@@ -774,240 +779,240 @@
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>narr_18</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
@@ -1033,22 +1038,22 @@
           <t>ending_a_rescue</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>ending_a_rescue</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
@@ -1060,22 +1065,22 @@
           <t>ending_b_inherit</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>ending_b_inherit</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
@@ -1089,208 +1094,208 @@
       </c>
     </row>
     <row r="46">
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>lily_ea2</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>balgas_ea1</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>zek_ea1</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>zek_ea2</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,0</t>
         </is>
@@ -1311,230 +1316,230 @@
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>lily_eb1</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>lily_eb2</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>balgas_eb1</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>balgas_eb2</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>zek_eb1</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,1</t>
         </is>
@@ -1555,34 +1560,34 @@
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/ProgressiveDance");             var data = SoundManager.current.GetData("BGM/ProgressiveDance");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/ProgressiveDance");             }</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>narr_21</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。そこで絶望の底で友を得て、魂を賭けて戦い、ついには、『うつろいし神』をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
         </is>
@@ -1603,327 +1608,327 @@
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>narr_nul_r1</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>（帰還の道へ向かおうとした時、崩れかけた回廊から、ゆっくりと歩いてくる人影がある。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>narr_nul_r2</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>（その姿を見た瞬間、あなたは目を疑った。）</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>nul_r1</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>……私も、驚いている。消えかけた……でも、消えなかった。</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>zek_nul_r1</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>ふむ……なるほど。アスタロトの『削除命令』は、完全に執行される前に、あの方の消滅と共に無効化されたのでしょう。</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>nul_r2</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>……あの方が消えた瞬間、私の中で何かが止まった。削除ではなく……解放。</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>nul_r3</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>……私の名前は、ヌル。……それでいい。</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>……私の名前は、ヌル。……それでいい。</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>nul_r4</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>……これからは、あなたと一緒に……生きていきたい。</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>……これからは、あなたと一緒に……生きていきたい。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>zek_nul_r2</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>クク……また一人、このアリーナから解放された魂が生まれましたね。……良い取引だ。</t>
         </is>
@@ -1949,17 +1954,17 @@
           <t>finale_check_lily_dead</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -1971,160 +1976,160 @@
           <t>finale_lily_hostile</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>balgas_f1</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>lily_f1</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+          <t>ふふ、楽しみです。……バルガスさん、まだイルヴァのお金は残ってあるの？</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>ふふ、楽しみです。……バルガスさん、まだイルヴァのお金は残ってあるの？</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>zek_f1</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -2138,216 +2143,216 @@
       </c>
     </row>
     <row r="118">
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>astaroth_6d</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>astaroth_7d</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>「……リリィ、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>lily_d5</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>……バルガスさんも、きっと喜んでくれているわ。彼の分まで、私たちは生きていかなきゃね。</t>
         </is>
@@ -2368,204 +2373,204 @@
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>lily_d6</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>narr_18</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』なのですね。</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>zek_d7</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>……おい、屠竜者。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
@@ -2591,22 +2596,22 @@
           <t>ending_a_balgas_dead</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>ending_a_rescue_dead</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
@@ -2618,22 +2623,22 @@
           <t>ending_b_balgas_dead</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>ending_b_inherit_dead</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
@@ -2647,172 +2652,172 @@
       </c>
     </row>
     <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>lily_ea2</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>lily_ead</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>……バルガスさんの分まで、私たちは生きていくわ。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E155" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>zek_ea1</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>zek_ea2</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,0</t>
         </is>
@@ -2833,172 +2838,172 @@
       </c>
     </row>
     <row r="163">
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>lily_eb1</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>lily_eb2</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>lily_ebd</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>バルガスさんの意志も、きっとこのアリーナに宿っているはず。私たちで受け継ぎましょう。</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E171" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>zek_eb1</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,1</t>
         </is>
@@ -3019,121 +3024,121 @@
       </c>
     </row>
     <row r="176">
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>lily_f1d</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>……さあ、行きましょう。私たちの新しい物語が、始まるのですから。</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>zek_f1</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -3152,17 +3157,17 @@
           <t>act5_worst</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -3188,17 +3193,17 @@
           <t>finale_worst</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -3219,238 +3224,238 @@
       </c>
     </row>
     <row r="191">
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>astaroth_6</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t>astaroth_7_lh</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>「……バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E196" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E200" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E202" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>balgas_lh5</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>……リリィの奴も、いつか分かってくれるといいんだがな。</t>
         </is>
@@ -3471,240 +3476,240 @@
       </c>
     </row>
     <row r="207">
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="I207" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="I208" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E209" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E211" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="I212" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>narr_18</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E214" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E216" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="I217" t="inlineStr">
         <is>
           <t>zek_lh7</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E218" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E220" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="I221" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
@@ -3730,22 +3735,22 @@
           <t>ending_a_lily_hostile</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>ending_a_rescue_lh</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="K224" t="inlineStr">
         <is>
           <t>皆を連れて、イルヴァへ行こう</t>
         </is>
@@ -3757,22 +3762,22 @@
           <t>ending_b_lily_hostile</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="I225" t="inlineStr">
         <is>
           <t>ending_b_inherit_lh</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="K225" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
@@ -3786,150 +3791,150 @@
       </c>
     </row>
     <row r="227">
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E227" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="D228" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E229" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t>balgas_ea_lh</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>……ケッ、35年ぶりの故郷か。カインのやつにも見せてやりたかった。</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="D232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E233" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="I234" t="inlineStr">
         <is>
           <t>zek_ea1</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="I235" t="inlineStr">
         <is>
           <t>zek_ea2</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="D236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,0</t>
         </is>
@@ -3950,150 +3955,150 @@
       </c>
     </row>
     <row r="239">
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E239" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="D240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="F242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="I242" t="inlineStr">
         <is>
           <t>balgas_eb_lh1</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="K242" t="inlineStr">
         <is>
           <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="F243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="I243" t="inlineStr">
         <is>
           <t>balgas_eb_lh2</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="K243" t="inlineStr">
         <is>
           <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="D245" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E246" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="F247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="I247" t="inlineStr">
         <is>
           <t>zek_eb1</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr">
+      <c r="K247" t="inlineStr">
         <is>
           <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="D248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,1</t>
         </is>
@@ -4114,121 +4119,121 @@
       </c>
     </row>
     <row r="251">
-      <c r="F251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="I251" t="inlineStr">
         <is>
           <t>balgas_f_lh</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr">
+      <c r="J251" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr">
+      <c r="K251" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="I252" t="inlineStr">
         <is>
           <t>zek_f1</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
+      <c r="J252" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ？</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="D253" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="F254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="I254" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr">
+      <c r="J254" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="D255" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="D256" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="D257" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="D258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -4242,180 +4247,180 @@
       </c>
     </row>
     <row r="260">
-      <c r="D260" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Hope");             var data = SoundManager.current.GetData("BGM/Emotional_Hope");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Hope");             }</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="F261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="I261" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I261" t="inlineStr">
+      <c r="J261" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="F262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="I262" t="inlineStr">
         <is>
           <t>astaroth_6</t>
         </is>
       </c>
-      <c r="I262" t="inlineStr">
+      <c r="J262" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr">
+      <c r="K262" t="inlineStr">
         <is>
           <t>「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="F263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="I263" t="inlineStr">
         <is>
           <t>astaroth_7_w</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr">
+      <c r="J263" t="inlineStr">
         <is>
           <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr">
+      <c r="K263" t="inlineStr">
         <is>
           <t>「……ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="F264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="I264" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
+      <c r="J264" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>（アスタロトが柔らかな光となって霧散していく。）</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E265" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="D266" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E267" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="F268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="I268" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr">
+      <c r="J268" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
-      <c r="J268" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="F269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="I269" t="inlineStr">
         <is>
           <t>zek_w5</t>
         </is>
       </c>
-      <c r="I269" t="inlineStr">
+      <c r="J269" t="inlineStr">
         <is>
           <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
         </is>
       </c>
-      <c r="J269" t="inlineStr">
+      <c r="K269" t="inlineStr">
         <is>
           <t>……バルガスもリリィも、もういない。残ったのは私たちだけですか。</t>
         </is>
@@ -4436,168 +4441,168 @@
       </c>
     </row>
     <row r="272">
-      <c r="F272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="I272" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr">
+      <c r="J272" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr">
+      <c r="K272" t="inlineStr">
         <is>
           <t>（アスタロトが完全に消えると、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="F273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="I273" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr">
+      <c r="J273" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
-      <c r="J273" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E274" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="D275" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E276" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="I277" t="inlineStr">
         <is>
           <t>zek_w6</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr">
+      <c r="J277" t="inlineStr">
         <is>
           <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
-      <c r="J277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>……見て。あれは……帰り道。</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="F278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="I278" t="inlineStr">
         <is>
           <t>narr_18</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr">
+      <c r="J278" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それはイルヴァへと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="I279" t="inlineStr">
         <is>
           <t>zek_w7</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="J279" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr">
+      <c r="K279" t="inlineStr">
         <is>
           <t>この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="F280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>zek_w8</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr">
+      <c r="J280" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr">
+      <c r="K280" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
@@ -4623,22 +4628,22 @@
           <t>ending_a_worst</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="E283" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="I283" t="inlineStr">
         <is>
           <t>ending_a_rescue_w</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr">
+      <c r="J283" t="inlineStr">
         <is>
           <t>イルヴァへ行こう</t>
         </is>
       </c>
-      <c r="J283" t="inlineStr">
+      <c r="K283" t="inlineStr">
         <is>
           <t>イルヴァへ行こう</t>
         </is>
@@ -4650,22 +4655,22 @@
           <t>ending_b_worst</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="I284" t="inlineStr">
         <is>
           <t>ending_b_inherit_w</t>
         </is>
       </c>
-      <c r="I284" t="inlineStr">
+      <c r="J284" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr">
+      <c r="K284" t="inlineStr">
         <is>
           <t>新しいアリーナを作り直したい</t>
         </is>
@@ -4679,92 +4684,92 @@
       </c>
     </row>
     <row r="286">
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="D287" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E288" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="F289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="I289" t="inlineStr">
         <is>
           <t>zek_ea_w1</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr">
+      <c r="J289" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="F290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="I290" t="inlineStr">
         <is>
           <t>zek_ea_w2</t>
         </is>
       </c>
-      <c r="I290" t="inlineStr">
+      <c r="J290" t="inlineStr">
         <is>
           <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr">
+      <c r="K290" t="inlineStr">
         <is>
           <t>……また会いましょう。孤独な英雄が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="D291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,0</t>
         </is>
@@ -4785,114 +4790,114 @@
       </c>
     </row>
     <row r="294">
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E294" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="D295" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
       <c r="E296" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="F297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
+      <c r="I297" t="inlineStr">
         <is>
           <t>zek_eb_w1</t>
         </is>
       </c>
-      <c r="I297" t="inlineStr">
+      <c r="J297" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr">
+      <c r="K297" t="inlineStr">
         <is>
           <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="F298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
+      <c r="I298" t="inlineStr">
         <is>
           <t>zek_eb_w2</t>
         </is>
       </c>
-      <c r="I298" t="inlineStr">
+      <c r="J298" t="inlineStr">
         <is>
           <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr">
+      <c r="K298" t="inlineStr">
         <is>
           <t>それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="F299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
+      <c r="I299" t="inlineStr">
         <is>
           <t>zek_eb_w3</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr">
+      <c r="J299" t="inlineStr">
         <is>
           <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr">
+      <c r="K299" t="inlineStr">
         <is>
           <t>私とあなた、二人でこの場所を作り上げていきましょう。……悪くない、取引ですよ。</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="D300" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
+      <c r="F300" t="inlineStr">
         <is>
           <t>chitsii.arena.player.ending,1</t>
         </is>
@@ -4913,121 +4918,121 @@
       </c>
     </row>
     <row r="303">
-      <c r="F303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
+      <c r="I303" t="inlineStr">
         <is>
           <t>zek_fw1</t>
         </is>
       </c>
-      <c r="I303" t="inlineStr">
+      <c r="J303" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr">
+      <c r="K303" t="inlineStr">
         <is>
           <t>……さて、孤独な英雄よ。次はどこへ行きますか？</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="F304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="I304" t="inlineStr">
         <is>
           <t>zek_fw2</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>私は……見届けさせてもらいましょう。あなたの選択の結末を。</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="D305" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
+      <c r="F305" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="F306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="I306" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr">
+      <c r="J306" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
-      <c r="J306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>【巣窟アリーナ】メインストーリークリア！</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="D307" t="inlineStr">
+      <c r="E307" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="F307" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.ShowEndingCredit()</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="D308" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>unfocus</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="D309" t="inlineStr">
+      <c r="E309" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
+      <c r="F309" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="D310" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>end</t>
         </is>
